--- a/arima.xlsx
+++ b/arima.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suwandiaminsangaji/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suwandiaminsangaji/Arima/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AEE43B-88D8-E549-8B34-AA2B394558DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06A879D-C0CC-DA4C-9221-39F99FA45312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -515,7 +515,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -895,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1096"/>
+  <dimension ref="A1:B1126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A1096"/>
+    <sheetView tabSelected="1" topLeftCell="A1091" workbookViewId="0">
+      <selection activeCell="A1097" sqref="A1097:A1126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9674,6 +9674,246 @@
         <v>4243</v>
       </c>
     </row>
+    <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1097" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B1097">
+        <v>4866</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1098" s="1">
+        <v>43832</v>
+      </c>
+      <c r="B1098">
+        <v>6494</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1099" s="1">
+        <v>43833</v>
+      </c>
+      <c r="B1099">
+        <v>6887</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1100" s="1">
+        <v>43834</v>
+      </c>
+      <c r="B1100">
+        <v>5924</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1101" s="1">
+        <v>43835</v>
+      </c>
+      <c r="B1101">
+        <v>6707</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1102" s="1">
+        <v>43836</v>
+      </c>
+      <c r="B1102">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1103" s="1">
+        <v>43837</v>
+      </c>
+      <c r="B1103">
+        <v>6673</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1104" s="1">
+        <v>43838</v>
+      </c>
+      <c r="B1104">
+        <v>5643</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1105" s="1">
+        <v>43839</v>
+      </c>
+      <c r="B1105">
+        <v>5492</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1106" s="1">
+        <v>43840</v>
+      </c>
+      <c r="B1106">
+        <v>6238</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1107" s="1">
+        <v>43841</v>
+      </c>
+      <c r="B1107">
+        <v>5165</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1108" s="1">
+        <v>43842</v>
+      </c>
+      <c r="B1108">
+        <v>5769</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1109" s="1">
+        <v>43843</v>
+      </c>
+      <c r="B1109">
+        <v>6509</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1110" s="1">
+        <v>43844</v>
+      </c>
+      <c r="B1110">
+        <v>5939</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1111" s="1">
+        <v>43845</v>
+      </c>
+      <c r="B1111">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1112" s="1">
+        <v>43846</v>
+      </c>
+      <c r="B1112">
+        <v>8632</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1113" s="1">
+        <v>43847</v>
+      </c>
+      <c r="B1113">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1114" s="1">
+        <v>43848</v>
+      </c>
+      <c r="B1114">
+        <v>5027</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1115" s="1">
+        <v>43849</v>
+      </c>
+      <c r="B1115">
+        <v>6244</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1116" s="1">
+        <v>43850</v>
+      </c>
+      <c r="B1116">
+        <v>5337</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1117" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B1117">
+        <v>4942</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1118" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B1118">
+        <v>4847</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1119" s="1">
+        <v>43853</v>
+      </c>
+      <c r="B1119">
+        <v>5768</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1120" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B1120">
+        <v>4706</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1121" s="1">
+        <v>43855</v>
+      </c>
+      <c r="B1121">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1122" s="1">
+        <v>43856</v>
+      </c>
+      <c r="B1122">
+        <v>6952</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1123" s="1">
+        <v>43857</v>
+      </c>
+      <c r="B1123">
+        <v>5886</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1124" s="1">
+        <v>43858</v>
+      </c>
+      <c r="B1124">
+        <v>6255</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1125" s="1">
+        <v>43859</v>
+      </c>
+      <c r="B1125">
+        <v>5431</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1126" s="1">
+        <v>43860</v>
+      </c>
+      <c r="B1126">
+        <v>6369</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/arima.xlsx
+++ b/arima.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suwandiaminsangaji/Arima/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06A879D-C0CC-DA4C-9221-39F99FA45312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B19E311-3E9F-CC46-902B-0D876F0383BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1091" workbookViewId="0">
-      <selection activeCell="A1097" sqref="A1097:A1126"/>
+    <sheetView tabSelected="1" topLeftCell="A1082" workbookViewId="0">
+      <selection activeCell="E1094" sqref="E1094"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9675,244 +9675,94 @@
       </c>
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1097" s="1">
-        <v>43831</v>
-      </c>
-      <c r="B1097">
-        <v>4866</v>
-      </c>
+      <c r="A1097" s="1"/>
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1098" s="1">
-        <v>43832</v>
-      </c>
-      <c r="B1098">
-        <v>6494</v>
-      </c>
+      <c r="A1098" s="1"/>
     </row>
     <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1099" s="1">
-        <v>43833</v>
-      </c>
-      <c r="B1099">
-        <v>6887</v>
-      </c>
+      <c r="A1099" s="1"/>
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1100" s="1">
-        <v>43834</v>
-      </c>
-      <c r="B1100">
-        <v>5924</v>
-      </c>
+      <c r="A1100" s="1"/>
     </row>
     <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1101" s="1">
-        <v>43835</v>
-      </c>
-      <c r="B1101">
-        <v>6707</v>
-      </c>
+      <c r="A1101" s="1"/>
     </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1102" s="1">
-        <v>43836</v>
-      </c>
-      <c r="B1102">
-        <v>5250</v>
-      </c>
+      <c r="A1102" s="1"/>
     </row>
     <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1103" s="1">
-        <v>43837</v>
-      </c>
-      <c r="B1103">
-        <v>6673</v>
-      </c>
+      <c r="A1103" s="1"/>
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1104" s="1">
-        <v>43838</v>
-      </c>
-      <c r="B1104">
-        <v>5643</v>
-      </c>
-    </row>
-    <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1105" s="1">
-        <v>43839</v>
-      </c>
-      <c r="B1105">
-        <v>5492</v>
-      </c>
-    </row>
-    <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1106" s="1">
-        <v>43840</v>
-      </c>
-      <c r="B1106">
-        <v>6238</v>
-      </c>
-    </row>
-    <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1107" s="1">
-        <v>43841</v>
-      </c>
-      <c r="B1107">
-        <v>5165</v>
-      </c>
-    </row>
-    <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1108" s="1">
-        <v>43842</v>
-      </c>
-      <c r="B1108">
-        <v>5769</v>
-      </c>
-    </row>
-    <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1109" s="1">
-        <v>43843</v>
-      </c>
-      <c r="B1109">
-        <v>6509</v>
-      </c>
-    </row>
-    <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1110" s="1">
-        <v>43844</v>
-      </c>
-      <c r="B1110">
-        <v>5939</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1111" s="1">
-        <v>43845</v>
-      </c>
-      <c r="B1111">
-        <v>3509</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1112" s="1">
-        <v>43846</v>
-      </c>
-      <c r="B1112">
-        <v>8632</v>
-      </c>
-    </row>
-    <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1113" s="1">
-        <v>43847</v>
-      </c>
-      <c r="B1113">
-        <v>4061</v>
-      </c>
-    </row>
-    <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1114" s="1">
-        <v>43848</v>
-      </c>
-      <c r="B1114">
-        <v>5027</v>
-      </c>
-    </row>
-    <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1115" s="1">
-        <v>43849</v>
-      </c>
-      <c r="B1115">
-        <v>6244</v>
-      </c>
-    </row>
-    <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1116" s="1">
-        <v>43850</v>
-      </c>
-      <c r="B1116">
-        <v>5337</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1117" s="1">
-        <v>43851</v>
-      </c>
-      <c r="B1117">
-        <v>4942</v>
-      </c>
-    </row>
-    <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1118" s="1">
-        <v>43852</v>
-      </c>
-      <c r="B1118">
-        <v>4847</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1119" s="1">
-        <v>43853</v>
-      </c>
-      <c r="B1119">
-        <v>5768</v>
-      </c>
-    </row>
-    <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1120" s="1">
-        <v>43854</v>
-      </c>
-      <c r="B1120">
-        <v>4706</v>
-      </c>
-    </row>
-    <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1121" s="1">
-        <v>43855</v>
-      </c>
-      <c r="B1121">
-        <v>4078</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1122" s="1">
-        <v>43856</v>
-      </c>
-      <c r="B1122">
-        <v>6952</v>
-      </c>
-    </row>
-    <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1123" s="1">
-        <v>43857</v>
-      </c>
-      <c r="B1123">
-        <v>5886</v>
-      </c>
-    </row>
-    <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1124" s="1">
-        <v>43858</v>
-      </c>
-      <c r="B1124">
-        <v>6255</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1125" s="1">
-        <v>43859</v>
-      </c>
-      <c r="B1125">
-        <v>5431</v>
-      </c>
-    </row>
-    <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1126" s="1">
-        <v>43860</v>
-      </c>
-      <c r="B1126">
-        <v>6369</v>
-      </c>
+      <c r="A1104" s="1"/>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1105" s="1"/>
+    </row>
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1106" s="1"/>
+    </row>
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1107" s="1"/>
+    </row>
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1108" s="1"/>
+    </row>
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1109" s="1"/>
+    </row>
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1110" s="1"/>
+    </row>
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1111" s="1"/>
+    </row>
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1112" s="1"/>
+    </row>
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1113" s="1"/>
+    </row>
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1114" s="1"/>
+    </row>
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1115" s="1"/>
+    </row>
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1116" s="1"/>
+    </row>
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1117" s="1"/>
+    </row>
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1118" s="1"/>
+    </row>
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1119" s="1"/>
+    </row>
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1120" s="1"/>
+    </row>
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1121" s="1"/>
+    </row>
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1122" s="1"/>
+    </row>
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1123" s="1"/>
+    </row>
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1124" s="1"/>
+    </row>
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1125" s="1"/>
+    </row>
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1126" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
